--- a/converter/data/xlsx/27.9.B_SMJENA.XLSX
+++ b/converter/data/xlsx/27.9.B_SMJENA.XLSX
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkuns.MARTA\Desktop\RASPORED 2122\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12345" tabRatio="478"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10632" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="106">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -416,8 +421,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2089,7 +2094,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2972,12 +2977,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3149,9 +3148,6 @@
     <xf numFmtId="0" fontId="14" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3255,6 +3251,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3278,18 +3289,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3298,12 +3297,12 @@
   <cellStyles count="9">
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="1"/>
     <cellStyle name="Normalno 3" xfId="5"/>
     <cellStyle name="Normalno 4" xfId="6"/>
     <cellStyle name="Normalno 5" xfId="7"/>
     <cellStyle name="Normalno 7" xfId="8"/>
-    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3348,7 +3347,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3436,7 +3435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3468,9 +3467,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3502,6 +3502,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3677,133 +3678,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AF56" sqref="AF56"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.5703125" style="6" customWidth="1"/>
-    <col min="28" max="29" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="5.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5546875" style="6" customWidth="1"/>
+    <col min="28" max="29" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="5.5546875" style="6" customWidth="1"/>
     <col min="34" max="34" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="35" max="35" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1">
-      <c r="A1" s="459" t="s">
+    <row r="1" spans="1:37" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="459"/>
-      <c r="C1" s="459"/>
-      <c r="D1" s="459"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
-      <c r="L1" s="459"/>
-      <c r="M1" s="459"/>
-      <c r="N1" s="459"/>
-      <c r="O1" s="459"/>
-      <c r="P1" s="459"/>
-      <c r="Q1" s="459"/>
-      <c r="R1" s="459"/>
-      <c r="S1" s="459"/>
-      <c r="T1" s="459"/>
-      <c r="U1" s="459"/>
-      <c r="V1" s="459"/>
-      <c r="W1" s="459"/>
-      <c r="X1" s="459"/>
-      <c r="Y1" s="459"/>
-      <c r="Z1" s="459"/>
-      <c r="AA1" s="459"/>
-      <c r="AB1" s="459"/>
-      <c r="AC1" s="459"/>
-      <c r="AD1" s="459"/>
-      <c r="AE1" s="459"/>
-      <c r="AF1" s="459"/>
-      <c r="AG1" s="459"/>
-      <c r="AH1" s="459"/>
-      <c r="AI1" s="459"/>
-      <c r="AJ1" s="459"/>
-    </row>
-    <row r="2" spans="1:37" ht="18">
+      <c r="B1" s="461"/>
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
+      <c r="F1" s="461"/>
+      <c r="G1" s="461"/>
+      <c r="H1" s="461"/>
+      <c r="I1" s="461"/>
+      <c r="J1" s="461"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="461"/>
+      <c r="M1" s="461"/>
+      <c r="N1" s="461"/>
+      <c r="O1" s="461"/>
+      <c r="P1" s="461"/>
+      <c r="Q1" s="461"/>
+      <c r="R1" s="461"/>
+      <c r="S1" s="461"/>
+      <c r="T1" s="461"/>
+      <c r="U1" s="461"/>
+      <c r="V1" s="461"/>
+      <c r="W1" s="461"/>
+      <c r="X1" s="461"/>
+      <c r="Y1" s="461"/>
+      <c r="Z1" s="461"/>
+      <c r="AA1" s="461"/>
+      <c r="AB1" s="461"/>
+      <c r="AC1" s="461"/>
+      <c r="AD1" s="461"/>
+      <c r="AE1" s="461"/>
+      <c r="AF1" s="461"/>
+      <c r="AG1" s="461"/>
+      <c r="AH1" s="461"/>
+      <c r="AI1" s="461"/>
+      <c r="AJ1" s="461"/>
+    </row>
+    <row r="2" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="460" t="s">
+      <c r="B2" s="462" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="461"/>
-      <c r="D2" s="461"/>
-      <c r="E2" s="461"/>
-      <c r="F2" s="461"/>
-      <c r="G2" s="461"/>
-      <c r="H2" s="462"/>
-      <c r="I2" s="463" t="s">
+      <c r="C2" s="463"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="463"/>
+      <c r="F2" s="463"/>
+      <c r="G2" s="463"/>
+      <c r="H2" s="464"/>
+      <c r="I2" s="465" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="461"/>
-      <c r="K2" s="461"/>
-      <c r="L2" s="461"/>
-      <c r="M2" s="461"/>
-      <c r="N2" s="461"/>
-      <c r="O2" s="462"/>
-      <c r="P2" s="460" t="s">
+      <c r="J2" s="463"/>
+      <c r="K2" s="463"/>
+      <c r="L2" s="463"/>
+      <c r="M2" s="463"/>
+      <c r="N2" s="463"/>
+      <c r="O2" s="464"/>
+      <c r="P2" s="462" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="461"/>
-      <c r="R2" s="461"/>
-      <c r="S2" s="461"/>
-      <c r="T2" s="461"/>
-      <c r="U2" s="461"/>
-      <c r="V2" s="462"/>
-      <c r="W2" s="463" t="s">
+      <c r="Q2" s="463"/>
+      <c r="R2" s="463"/>
+      <c r="S2" s="463"/>
+      <c r="T2" s="463"/>
+      <c r="U2" s="463"/>
+      <c r="V2" s="464"/>
+      <c r="W2" s="465" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="461"/>
-      <c r="Y2" s="461"/>
-      <c r="Z2" s="461"/>
-      <c r="AA2" s="461"/>
-      <c r="AB2" s="461"/>
-      <c r="AC2" s="462"/>
-      <c r="AD2" s="464" t="s">
+      <c r="X2" s="463"/>
+      <c r="Y2" s="463"/>
+      <c r="Z2" s="463"/>
+      <c r="AA2" s="463"/>
+      <c r="AB2" s="463"/>
+      <c r="AC2" s="464"/>
+      <c r="AD2" s="466" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="465"/>
-      <c r="AF2" s="465"/>
-      <c r="AG2" s="465"/>
-      <c r="AH2" s="465"/>
-      <c r="AI2" s="465"/>
-      <c r="AJ2" s="466"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1">
+      <c r="AE2" s="467"/>
+      <c r="AF2" s="467"/>
+      <c r="AG2" s="467"/>
+      <c r="AH2" s="467"/>
+      <c r="AI2" s="467"/>
+      <c r="AJ2" s="468"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1">
+    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>72</v>
       </c>
@@ -3989,7 +3990,7 @@
       <c r="AI4" s="26"/>
       <c r="AJ4" s="154"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="235" t="s">
         <v>73</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="236" t="s">
         <v>60</v>
       </c>
@@ -4125,7 +4126,7 @@
       </c>
       <c r="AJ6" s="38"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="295" t="s">
         <v>49</v>
       </c>
@@ -4162,8 +4163,12 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="21"/>
+      <c r="U7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>80</v>
+      </c>
       <c r="W7" s="28"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11" t="s">
@@ -4183,7 +4188,7 @@
       <c r="AI7" s="11"/>
       <c r="AJ7" s="30"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>75</v>
       </c>
@@ -4213,9 +4218,7 @@
       <c r="M8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="N8" s="11"/>
       <c r="O8" s="21"/>
       <c r="P8" s="17" t="s">
         <v>45</v>
@@ -4232,12 +4235,8 @@
       <c r="T8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="28" t="s">
         <v>58</v>
       </c>
@@ -4269,65 +4268,67 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="203"/>
       <c r="C9" s="225"/>
       <c r="D9" s="225"/>
-      <c r="E9" s="414" t="s">
+      <c r="E9" s="412" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="70"/>
-      <c r="G9" s="414" t="s">
+      <c r="G9" s="412" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="415" t="s">
+      <c r="H9" s="413" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="416" t="s">
+      <c r="I9" s="414" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="417" t="s">
+      <c r="J9" s="415" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="417" t="s">
+      <c r="K9" s="415" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="417" t="s">
+      <c r="L9" s="415" t="s">
         <v>54</v>
       </c>
       <c r="M9" s="29"/>
-      <c r="N9" s="72"/>
+      <c r="N9" s="72" t="s">
+        <v>58</v>
+      </c>
       <c r="O9" s="25"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="418" t="s">
+      <c r="Q9" s="416" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="418" t="s">
+      <c r="R9" s="416" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="418" t="s">
+      <c r="S9" s="416" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="418" t="s">
+      <c r="T9" s="416" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="418" t="s">
+      <c r="U9" s="416" t="s">
         <v>80</v>
       </c>
-      <c r="V9" s="419" t="s">
+      <c r="V9" s="417" t="s">
         <v>80</v>
       </c>
-      <c r="W9" s="420" t="s">
+      <c r="W9" s="418" t="s">
         <v>58</v>
       </c>
-      <c r="X9" s="418" t="s">
+      <c r="X9" s="416" t="s">
         <v>58</v>
       </c>
       <c r="Y9" s="35"/>
-      <c r="Z9" s="418" t="s">
+      <c r="Z9" s="416" t="s">
         <v>46</v>
       </c>
       <c r="AA9" s="35"/>
@@ -4341,7 +4342,7 @@
       <c r="AI9" s="35"/>
       <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="236" t="s">
         <v>8</v>
       </c>
@@ -4371,19 +4372,19 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="425" t="s">
+      <c r="AB10" s="422" t="s">
         <v>83</v>
       </c>
-      <c r="AC10" s="426" t="s">
+      <c r="AC10" s="423" t="s">
         <v>83</v>
       </c>
-      <c r="AD10" s="424" t="s">
+      <c r="AD10" s="421" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="425" t="s">
+      <c r="AE10" s="422" t="s">
         <v>55</v>
       </c>
-      <c r="AF10" s="425" t="s">
+      <c r="AF10" s="422" t="s">
         <v>83</v>
       </c>
       <c r="AG10" s="20"/>
@@ -4391,7 +4392,7 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="38"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="237" t="s">
         <v>16</v>
       </c>
@@ -4451,7 +4452,7 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="30"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="237" t="s">
         <v>67</v>
       </c>
@@ -4495,7 +4496,7 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="30"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="237" t="s">
         <v>13</v>
       </c>
@@ -4506,31 +4507,29 @@
       <c r="F13" s="63"/>
       <c r="G13" s="70"/>
       <c r="H13" s="64"/>
-      <c r="I13" s="427" t="s">
+      <c r="I13" s="424" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="428" t="s">
+      <c r="J13" s="425" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="429" t="s">
+      <c r="K13" s="426" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="429" t="s">
+      <c r="L13" s="426" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="421" t="s">
+      <c r="M13" s="419" t="s">
         <v>78</v>
       </c>
-      <c r="N13" s="422" t="s">
+      <c r="N13" s="420" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="419" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="430" t="s">
+      <c r="O13" s="41"/>
+      <c r="P13" s="427" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="428" t="s">
+      <c r="Q13" s="425" t="s">
         <v>45</v>
       </c>
       <c r="R13" s="11"/>
@@ -4551,12 +4550,10 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
-      <c r="AJ13" s="423" t="s">
-        <v>58</v>
-      </c>
+      <c r="AJ13" s="30"/>
       <c r="AK13" s="93"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="238" t="s">
         <v>11</v>
       </c>
@@ -4613,7 +4610,7 @@
       </c>
       <c r="AK14" s="93"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="238" t="s">
         <v>32</v>
       </c>
@@ -4668,7 +4665,7 @@
       <c r="AJ15" s="30"/>
       <c r="AK15" s="93"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="238" t="s">
         <v>41</v>
       </c>
@@ -4683,7 +4680,7 @@
         <v>56</v>
       </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="452" t="s">
+      <c r="K16" s="449" t="s">
         <v>56</v>
       </c>
       <c r="L16" s="11"/>
@@ -4729,7 +4726,7 @@
       <c r="AJ16" s="30"/>
       <c r="AK16" s="93"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="235" t="s">
         <v>5</v>
       </c>
@@ -4770,7 +4767,7 @@
       <c r="AJ17" s="40"/>
       <c r="AK17" s="93"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="18" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -4826,7 +4823,7 @@
       <c r="AK18" s="93"/>
       <c r="AL18" s="93"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="235" t="s">
         <v>50</v>
       </c>
@@ -4850,7 +4847,7 @@
       <c r="O19" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="451" t="s">
+      <c r="P19" s="448" t="s">
         <v>47</v>
       </c>
       <c r="Q19" s="159" t="s">
@@ -4905,7 +4902,7 @@
       </c>
       <c r="AM19" s="93"/>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="235" t="s">
         <v>17</v>
       </c>
@@ -4955,7 +4952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="235" t="s">
         <v>104</v>
       </c>
@@ -5018,7 +5015,7 @@
       <c r="AJ21" s="24"/>
       <c r="AL21" s="93"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1">
+    <row r="22" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="235" t="s">
         <v>66</v>
       </c>
@@ -5083,7 +5080,7 @@
       <c r="AJ22" s="24"/>
       <c r="AL22" s="93"/>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="236" t="s">
         <v>33</v>
       </c>
@@ -5161,7 +5158,7 @@
       <c r="AI23" s="20"/>
       <c r="AJ23" s="38"/>
     </row>
-    <row r="24" spans="1:39" ht="18" customHeight="1">
+    <row r="24" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="223" t="s">
         <v>28</v>
       </c>
@@ -5247,7 +5244,7 @@
       <c r="AK24" s="156"/>
       <c r="AL24" s="156"/>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1">
+    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="237" t="s">
         <v>29</v>
       </c>
@@ -5311,7 +5308,7 @@
       <c r="AK25" s="157"/>
       <c r="AL25" s="158"/>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1" thickBot="1">
+    <row r="26" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="224" t="s">
         <v>27</v>
       </c>
@@ -5394,7 +5391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1">
+    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="237" t="s">
         <v>26</v>
       </c>
@@ -5402,10 +5399,10 @@
       <c r="C27" s="145"/>
       <c r="D27" s="60"/>
       <c r="E27" s="179"/>
-      <c r="F27" s="374" t="s">
+      <c r="F27" s="372" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="374" t="s">
+      <c r="G27" s="372" t="s">
         <v>58</v>
       </c>
       <c r="H27" s="68"/>
@@ -5426,40 +5423,44 @@
       <c r="O27" s="346" t="s">
         <v>46</v>
       </c>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="119"/>
+      <c r="P27" s="456" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="368" t="s">
+        <v>63</v>
+      </c>
       <c r="R27" s="11"/>
-      <c r="S27" s="370" t="s">
+      <c r="S27" s="368" t="s">
         <v>82</v>
       </c>
-      <c r="T27" s="370" t="s">
+      <c r="T27" s="368" t="s">
         <v>82</v>
       </c>
       <c r="U27" s="119"/>
       <c r="V27" s="259"/>
-      <c r="W27" s="393" t="s">
+      <c r="W27" s="391" t="s">
         <v>82</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Y27" s="394" t="s">
+      <c r="Y27" s="392" t="s">
         <v>58</v>
       </c>
-      <c r="Z27" s="395" t="s">
+      <c r="Z27" s="393" t="s">
         <v>58</v>
       </c>
       <c r="AA27" s="146"/>
       <c r="AB27" s="146"/>
       <c r="AC27" s="147"/>
       <c r="AD27" s="17"/>
-      <c r="AE27" s="394" t="s">
+      <c r="AE27" s="392" t="s">
         <v>58</v>
       </c>
       <c r="AF27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AG27" s="396" t="s">
+      <c r="AG27" s="394" t="s">
         <v>58</v>
       </c>
       <c r="AH27" s="288"/>
@@ -5469,7 +5470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="238" t="s">
         <v>14</v>
       </c>
@@ -5519,10 +5520,10 @@
       <c r="AA28" s="29"/>
       <c r="AB28" s="29"/>
       <c r="AC28" s="25"/>
-      <c r="AD28" s="446" t="s">
+      <c r="AD28" s="443" t="s">
         <v>44</v>
       </c>
-      <c r="AE28" s="447" t="s">
+      <c r="AE28" s="444" t="s">
         <v>44</v>
       </c>
       <c r="AF28" s="92" t="s">
@@ -5536,16 +5537,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1">
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="235" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
-      <c r="D29" s="373" t="s">
+      <c r="D29" s="371" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="373" t="s">
+      <c r="E29" s="371" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="63" t="s">
@@ -5603,7 +5604,7 @@
       </c>
       <c r="AK29" s="118"/>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1">
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="235" t="s">
         <v>6</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1">
+    <row r="31" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>9</v>
       </c>
@@ -5697,7 +5698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="18" customHeight="1">
+    <row r="32" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
@@ -5713,40 +5714,40 @@
       <c r="E32" s="230" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="380" t="s">
+      <c r="F32" s="378" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="380" t="s">
+      <c r="G32" s="378" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="381" t="s">
+      <c r="H32" s="379" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="384" t="s">
+      <c r="I32" s="382" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="385" t="s">
+      <c r="J32" s="383" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="386" t="s">
+      <c r="K32" s="384" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="389" t="s">
+      <c r="L32" s="387" t="s">
         <v>63</v>
       </c>
-      <c r="M32" s="390" t="s">
+      <c r="M32" s="388" t="s">
         <v>63</v>
       </c>
-      <c r="N32" s="390" t="s">
+      <c r="N32" s="388" t="s">
         <v>63</v>
       </c>
-      <c r="O32" s="391" t="s">
+      <c r="O32" s="389" t="s">
         <v>63</v>
       </c>
-      <c r="P32" s="366" t="s">
+      <c r="P32" s="364" t="s">
         <v>63</v>
       </c>
-      <c r="Q32" s="367" t="s">
+      <c r="Q32" s="365" t="s">
         <v>63</v>
       </c>
       <c r="R32" s="137" t="s">
@@ -5776,60 +5777,60 @@
       <c r="Z32" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="AA32" s="399" t="s">
+      <c r="AA32" s="397" t="s">
         <v>58</v>
       </c>
-      <c r="AB32" s="366" t="s">
+      <c r="AB32" s="364" t="s">
         <v>63</v>
       </c>
-      <c r="AC32" s="391" t="s">
+      <c r="AC32" s="389" t="s">
         <v>63</v>
       </c>
-      <c r="AD32" s="399" t="s">
+      <c r="AD32" s="397" t="s">
         <v>82</v>
       </c>
-      <c r="AE32" s="404" t="s">
+      <c r="AE32" s="402" t="s">
         <v>82</v>
       </c>
-      <c r="AF32" s="404" t="s">
+      <c r="AF32" s="402" t="s">
         <v>82</v>
       </c>
-      <c r="AG32" s="404" t="s">
+      <c r="AG32" s="402" t="s">
         <v>82</v>
       </c>
-      <c r="AH32" s="367" t="s">
+      <c r="AH32" s="365" t="s">
         <v>63</v>
       </c>
-      <c r="AI32" s="367" t="s">
+      <c r="AI32" s="365" t="s">
         <v>63</v>
       </c>
-      <c r="AJ32" s="405" t="s">
+      <c r="AJ32" s="403" t="s">
         <v>63</v>
       </c>
       <c r="AK32" s="118" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="371" t="s">
+      <c r="B33" s="369" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="372" t="s">
+      <c r="C33" s="370" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="375" t="s">
+      <c r="D33" s="373" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="376" t="s">
+      <c r="E33" s="374" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="375" t="s">
+      <c r="F33" s="373" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="375" t="s">
+      <c r="G33" s="373" t="s">
         <v>45</v>
       </c>
       <c r="H33" s="287" t="s">
@@ -5850,45 +5851,41 @@
       <c r="O33" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="P33" s="358" t="s">
+      <c r="P33" s="122"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="358" t="s">
+        <v>82</v>
+      </c>
+      <c r="S33" s="358" t="s">
         <v>63</v>
       </c>
-      <c r="Q33" s="359" t="s">
+      <c r="T33" s="358" t="s">
         <v>63</v>
       </c>
-      <c r="R33" s="360" t="s">
+      <c r="U33" s="359" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33" s="360" t="s">
+        <v>58</v>
+      </c>
+      <c r="W33" s="163"/>
+      <c r="X33" s="358" t="s">
         <v>82</v>
       </c>
-      <c r="S33" s="360" t="s">
-        <v>63</v>
-      </c>
-      <c r="T33" s="360" t="s">
-        <v>63</v>
-      </c>
-      <c r="U33" s="361" t="s">
-        <v>58</v>
-      </c>
-      <c r="V33" s="362" t="s">
-        <v>58</v>
-      </c>
-      <c r="W33" s="163"/>
-      <c r="X33" s="360" t="s">
+      <c r="Y33" s="398" t="s">
         <v>82</v>
       </c>
-      <c r="Y33" s="400" t="s">
+      <c r="Z33" s="399" t="s">
         <v>82</v>
       </c>
-      <c r="Z33" s="401" t="s">
+      <c r="AA33" s="395" t="s">
         <v>82</v>
       </c>
-      <c r="AA33" s="397" t="s">
+      <c r="AB33" s="396" t="s">
         <v>82</v>
       </c>
-      <c r="AB33" s="398" t="s">
-        <v>82</v>
-      </c>
       <c r="AC33" s="25"/>
-      <c r="AD33" s="406" t="s">
+      <c r="AD33" s="404" t="s">
         <v>82</v>
       </c>
       <c r="AE33" s="134" t="s">
@@ -5903,7 +5900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="34" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="236" t="s">
         <v>7</v>
       </c>
@@ -5924,13 +5921,13 @@
       <c r="H34" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="382" t="s">
+      <c r="I34" s="380" t="s">
         <v>58</v>
       </c>
-      <c r="J34" s="383" t="s">
+      <c r="J34" s="381" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="383" t="s">
+      <c r="K34" s="381" t="s">
         <v>58</v>
       </c>
       <c r="L34" s="340" t="s">
@@ -5950,35 +5947,35 @@
       <c r="R34" s="20"/>
       <c r="S34" s="97"/>
       <c r="T34" s="97"/>
-      <c r="U34" s="368" t="s">
+      <c r="U34" s="366" t="s">
         <v>58</v>
       </c>
-      <c r="V34" s="369" t="s">
+      <c r="V34" s="367" t="s">
         <v>58</v>
       </c>
       <c r="W34" s="144"/>
       <c r="X34" s="264"/>
-      <c r="Y34" s="382" t="s">
+      <c r="Y34" s="380" t="s">
         <v>58</v>
       </c>
-      <c r="Z34" s="392" t="s">
+      <c r="Z34" s="390" t="s">
         <v>58</v>
       </c>
-      <c r="AA34" s="392" t="s">
+      <c r="AA34" s="390" t="s">
         <v>58</v>
       </c>
-      <c r="AB34" s="392" t="s">
+      <c r="AB34" s="390" t="s">
         <v>82</v>
       </c>
       <c r="AC34" s="37"/>
       <c r="AD34" s="182"/>
-      <c r="AE34" s="383" t="s">
+      <c r="AE34" s="381" t="s">
         <v>58</v>
       </c>
-      <c r="AF34" s="392" t="s">
+      <c r="AF34" s="390" t="s">
         <v>58</v>
       </c>
-      <c r="AG34" s="382" t="s">
+      <c r="AG34" s="380" t="s">
         <v>58</v>
       </c>
       <c r="AH34" s="150"/>
@@ -5986,7 +5983,7 @@
       <c r="AJ34" s="190"/>
       <c r="AK34" s="117"/>
     </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1">
+    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="296" t="s">
         <v>51</v>
       </c>
@@ -6068,7 +6065,7 @@
       <c r="AI35" s="32"/>
       <c r="AJ35" s="36"/>
     </row>
-    <row r="36" spans="1:37" ht="18" customHeight="1">
+    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>76</v>
       </c>
@@ -6156,7 +6153,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1">
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="235" t="s">
         <v>42</v>
       </c>
@@ -6202,22 +6199,22 @@
       <c r="W37" s="39"/>
       <c r="X37" s="29"/>
       <c r="Y37" s="251"/>
-      <c r="Z37" s="442" t="s">
+      <c r="Z37" s="439" t="s">
         <v>80</v>
       </c>
-      <c r="AA37" s="443" t="s">
+      <c r="AA37" s="440" t="s">
         <v>80</v>
       </c>
-      <c r="AB37" s="444" t="s">
+      <c r="AB37" s="441" t="s">
         <v>80</v>
       </c>
-      <c r="AC37" s="445" t="s">
+      <c r="AC37" s="442" t="s">
         <v>80</v>
       </c>
-      <c r="AD37" s="448" t="s">
+      <c r="AD37" s="445" t="s">
         <v>79</v>
       </c>
-      <c r="AE37" s="448" t="s">
+      <c r="AE37" s="445" t="s">
         <v>79</v>
       </c>
       <c r="AF37" s="337" t="s">
@@ -6232,11 +6229,11 @@
       <c r="AI37" s="350" t="s">
         <v>80</v>
       </c>
-      <c r="AJ37" s="402" t="s">
+      <c r="AJ37" s="400" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1">
+    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="235" t="s">
         <v>30</v>
       </c>
@@ -6286,7 +6283,7 @@
       <c r="AI38" s="35"/>
       <c r="AJ38" s="48"/>
     </row>
-    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="236" t="s">
         <v>43</v>
       </c>
@@ -6321,7 +6318,7 @@
       <c r="T39" s="133"/>
       <c r="U39" s="264"/>
       <c r="V39" s="274"/>
-      <c r="W39" s="441" t="s">
+      <c r="W39" s="438" t="s">
         <v>53</v>
       </c>
       <c r="X39" s="339" t="s">
@@ -6334,10 +6331,10 @@
       <c r="AA39" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AB39" s="439" t="s">
+      <c r="AB39" s="436" t="s">
         <v>63</v>
       </c>
-      <c r="AC39" s="440" t="s">
+      <c r="AC39" s="437" t="s">
         <v>63</v>
       </c>
       <c r="AD39" s="19"/>
@@ -6352,7 +6349,7 @@
       </c>
       <c r="AJ39" s="142"/>
     </row>
-    <row r="40" spans="1:37" ht="22.15" customHeight="1">
+    <row r="40" spans="1:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="238" t="s">
         <v>15</v>
       </c>
@@ -6399,21 +6396,21 @@
       <c r="AF40" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AG40" s="436" t="s">
+      <c r="AG40" s="433" t="s">
         <v>83</v>
       </c>
-      <c r="AH40" s="434" t="s">
+      <c r="AH40" s="431" t="s">
         <v>55</v>
       </c>
-      <c r="AI40" s="434" t="s">
+      <c r="AI40" s="431" t="s">
         <v>55</v>
       </c>
-      <c r="AJ40" s="435" t="s">
+      <c r="AJ40" s="432" t="s">
         <v>55</v>
       </c>
       <c r="AK40" s="90"/>
     </row>
-    <row r="41" spans="1:37" ht="18" customHeight="1">
+    <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="235" t="s">
         <v>59</v>
       </c>
@@ -6421,13 +6418,13 @@
       <c r="C41" s="70"/>
       <c r="D41" s="70"/>
       <c r="E41" s="70"/>
-      <c r="F41" s="431" t="s">
+      <c r="F41" s="428" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="431" t="s">
+      <c r="G41" s="428" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="432" t="s">
+      <c r="H41" s="429" t="s">
         <v>55</v>
       </c>
       <c r="I41" s="10"/>
@@ -6455,18 +6452,18 @@
       <c r="AE41" s="35"/>
       <c r="AF41" s="35"/>
       <c r="AG41" s="35"/>
-      <c r="AH41" s="437" t="s">
+      <c r="AH41" s="434" t="s">
         <v>55</v>
       </c>
-      <c r="AI41" s="437" t="s">
+      <c r="AI41" s="434" t="s">
         <v>55</v>
       </c>
-      <c r="AJ41" s="438" t="s">
+      <c r="AJ41" s="435" t="s">
         <v>55</v>
       </c>
       <c r="AK41" s="90"/>
     </row>
-    <row r="42" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="42" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>65</v>
       </c>
@@ -6528,10 +6525,10 @@
         <v>57</v>
       </c>
       <c r="Y42" s="35"/>
-      <c r="Z42" s="433" t="s">
+      <c r="Z42" s="430" t="s">
         <v>55</v>
       </c>
-      <c r="AA42" s="433" t="s">
+      <c r="AA42" s="430" t="s">
         <v>55</v>
       </c>
       <c r="AB42" s="35" t="s">
@@ -6561,7 +6558,7 @@
       </c>
       <c r="AK42" s="90"/>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1">
+    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="237" t="s">
         <v>62</v>
       </c>
@@ -6609,7 +6606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1">
+    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="222" t="s">
         <v>74</v>
       </c>
@@ -6687,7 +6684,7 @@
       <c r="AI44" s="29"/>
       <c r="AJ44" s="40"/>
     </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1">
+    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
@@ -6723,29 +6720,29 @@
       </c>
       <c r="N45" s="20"/>
       <c r="O45" s="37"/>
-      <c r="P45" s="453"/>
-      <c r="Q45" s="454"/>
-      <c r="R45" s="454"/>
-      <c r="S45" s="454"/>
-      <c r="T45" s="454"/>
-      <c r="U45" s="454"/>
-      <c r="V45" s="455"/>
-      <c r="W45" s="456"/>
-      <c r="X45" s="454"/>
-      <c r="Y45" s="454"/>
-      <c r="Z45" s="454"/>
-      <c r="AA45" s="454"/>
-      <c r="AB45" s="454"/>
-      <c r="AC45" s="455"/>
-      <c r="AD45" s="453"/>
-      <c r="AE45" s="454"/>
-      <c r="AF45" s="454"/>
-      <c r="AG45" s="454"/>
-      <c r="AH45" s="454"/>
-      <c r="AI45" s="454"/>
-      <c r="AJ45" s="457"/>
-    </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1">
+      <c r="P45" s="450"/>
+      <c r="Q45" s="451"/>
+      <c r="R45" s="451"/>
+      <c r="S45" s="451"/>
+      <c r="T45" s="451"/>
+      <c r="U45" s="451"/>
+      <c r="V45" s="452"/>
+      <c r="W45" s="453"/>
+      <c r="X45" s="451"/>
+      <c r="Y45" s="451"/>
+      <c r="Z45" s="451"/>
+      <c r="AA45" s="451"/>
+      <c r="AB45" s="451"/>
+      <c r="AC45" s="452"/>
+      <c r="AD45" s="450"/>
+      <c r="AE45" s="451"/>
+      <c r="AF45" s="451"/>
+      <c r="AG45" s="451"/>
+      <c r="AH45" s="451"/>
+      <c r="AI45" s="451"/>
+      <c r="AJ45" s="454"/>
+    </row>
+    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="160" t="s">
         <v>91</v>
       </c>
@@ -6826,8 +6823,8 @@
       <c r="AJ46" s="172"/>
       <c r="AK46" s="93"/>
     </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1">
-      <c r="A47" s="449" t="s">
+    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="446" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="188"/>
@@ -6875,8 +6872,8 @@
       <c r="AJ47" s="172"/>
       <c r="AK47" s="93"/>
     </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1">
-      <c r="A48" s="449" t="s">
+    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="446" t="s">
         <v>84</v>
       </c>
       <c r="B48" s="188"/>
@@ -6922,7 +6919,7 @@
       </c>
       <c r="AK48" s="93"/>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1">
+    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="169" t="s">
         <v>93</v>
       </c>
@@ -6993,8 +6990,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1">
-      <c r="A50" s="449" t="s">
+    <row r="50" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="446" t="s">
         <v>94</v>
       </c>
       <c r="B50" s="59"/>
@@ -7046,7 +7043,7 @@
       </c>
       <c r="AK50" s="217"/>
     </row>
-    <row r="51" spans="1:38" ht="18" customHeight="1">
+    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="169" t="s">
         <v>90</v>
       </c>
@@ -7147,7 +7144,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1">
+    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>95</v>
       </c>
@@ -7247,7 +7244,7 @@
       </c>
       <c r="AL52" s="93"/>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1">
+    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>96</v>
       </c>
@@ -7346,8 +7343,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1">
-      <c r="A54" s="450" t="s">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="447" t="s">
         <v>64</v>
       </c>
       <c r="B54" s="111" t="s">
@@ -7417,7 +7414,7 @@
       </c>
       <c r="AK54" s="93"/>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>98</v>
       </c>
@@ -7490,7 +7487,7 @@
       <c r="AB55" s="357" t="s">
         <v>80</v>
       </c>
-      <c r="AC55" s="458" t="s">
+      <c r="AC55" s="455" t="s">
         <v>80</v>
       </c>
       <c r="AD55" s="273" t="s">
@@ -7516,7 +7513,7 @@
       </c>
       <c r="AK55" s="93"/>
     </row>
-    <row r="56" spans="1:38" ht="18" customHeight="1">
+    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="235" t="s">
         <v>81</v>
       </c>
@@ -7559,20 +7556,20 @@
       <c r="AJ56" s="101"/>
       <c r="AK56" s="93"/>
     </row>
-    <row r="57" spans="1:38" ht="20.25" customHeight="1">
+    <row r="57" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="379" t="s">
+      <c r="B57" s="377" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="379" t="s">
+      <c r="C57" s="377" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="377" t="s">
+      <c r="D57" s="375" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="378" t="s">
+      <c r="E57" s="376" t="s">
         <v>63</v>
       </c>
       <c r="F57" s="233"/>
@@ -7587,10 +7584,10 @@
       <c r="M57" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="N57" s="387" t="s">
+      <c r="N57" s="385" t="s">
         <v>63</v>
       </c>
-      <c r="O57" s="388" t="s">
+      <c r="O57" s="386" t="s">
         <v>63</v>
       </c>
       <c r="P57" s="92" t="s">
@@ -7599,19 +7596,19 @@
       <c r="Q57" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="R57" s="363" t="s">
+      <c r="R57" s="361" t="s">
         <v>63</v>
       </c>
-      <c r="S57" s="363" t="s">
+      <c r="S57" s="361" t="s">
         <v>63</v>
       </c>
-      <c r="T57" s="363" t="s">
+      <c r="T57" s="361" t="s">
         <v>63</v>
       </c>
-      <c r="U57" s="364" t="s">
+      <c r="U57" s="362" t="s">
         <v>82</v>
       </c>
-      <c r="V57" s="365" t="s">
+      <c r="V57" s="363" t="s">
         <v>82</v>
       </c>
       <c r="W57" s="162" t="s">
@@ -7651,12 +7648,12 @@
       <c r="AI57" s="221" t="s">
         <v>63</v>
       </c>
-      <c r="AJ57" s="403" t="s">
+      <c r="AJ57" s="401" t="s">
         <v>63</v>
       </c>
       <c r="AK57" s="94"/>
     </row>
-    <row r="58" spans="1:38" ht="13.5" thickBot="1">
+    <row r="58" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
       <c r="D58" s="57"/>
@@ -7693,72 +7690,72 @@
       <c r="AI58" s="57"/>
       <c r="AJ58" s="57"/>
     </row>
-    <row r="59" spans="1:38" ht="21" thickBot="1">
+    <row r="59" spans="1:38" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="467" t="s">
+      <c r="B59" s="457" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="468"/>
-      <c r="D59" s="468"/>
-      <c r="E59" s="468"/>
-      <c r="F59" s="468"/>
-      <c r="G59" s="468"/>
-      <c r="H59" s="470"/>
-      <c r="I59" s="467" t="s">
+      <c r="C59" s="458"/>
+      <c r="D59" s="458"/>
+      <c r="E59" s="458"/>
+      <c r="F59" s="458"/>
+      <c r="G59" s="458"/>
+      <c r="H59" s="460"/>
+      <c r="I59" s="457" t="s">
         <v>100</v>
       </c>
-      <c r="J59" s="468"/>
-      <c r="K59" s="468"/>
-      <c r="L59" s="468"/>
-      <c r="M59" s="468"/>
-      <c r="N59" s="468"/>
-      <c r="O59" s="470"/>
-      <c r="P59" s="467" t="s">
+      <c r="J59" s="458"/>
+      <c r="K59" s="458"/>
+      <c r="L59" s="458"/>
+      <c r="M59" s="458"/>
+      <c r="N59" s="458"/>
+      <c r="O59" s="460"/>
+      <c r="P59" s="457" t="s">
         <v>101</v>
       </c>
-      <c r="Q59" s="468"/>
-      <c r="R59" s="468"/>
-      <c r="S59" s="468"/>
-      <c r="T59" s="468"/>
-      <c r="U59" s="468"/>
-      <c r="V59" s="470"/>
-      <c r="W59" s="467" t="s">
+      <c r="Q59" s="458"/>
+      <c r="R59" s="458"/>
+      <c r="S59" s="458"/>
+      <c r="T59" s="458"/>
+      <c r="U59" s="458"/>
+      <c r="V59" s="460"/>
+      <c r="W59" s="457" t="s">
         <v>102</v>
       </c>
-      <c r="X59" s="468"/>
-      <c r="Y59" s="468"/>
-      <c r="Z59" s="468"/>
-      <c r="AA59" s="468"/>
-      <c r="AB59" s="468"/>
-      <c r="AC59" s="470"/>
-      <c r="AD59" s="467" t="s">
+      <c r="X59" s="458"/>
+      <c r="Y59" s="458"/>
+      <c r="Z59" s="458"/>
+      <c r="AA59" s="458"/>
+      <c r="AB59" s="458"/>
+      <c r="AC59" s="460"/>
+      <c r="AD59" s="457" t="s">
         <v>105</v>
       </c>
-      <c r="AE59" s="468"/>
-      <c r="AF59" s="468"/>
-      <c r="AG59" s="468"/>
-      <c r="AH59" s="468"/>
-      <c r="AI59" s="468"/>
-      <c r="AJ59" s="469"/>
-    </row>
-    <row r="63" spans="1:38">
+      <c r="AE59" s="458"/>
+      <c r="AF59" s="458"/>
+      <c r="AG59" s="458"/>
+      <c r="AH59" s="458"/>
+      <c r="AI59" s="458"/>
+      <c r="AJ59" s="459"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="O63" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AD59:AJ59"/>
-    <mergeCell ref="W59:AC59"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="I59:O59"/>
-    <mergeCell ref="P59:V59"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AD59:AJ59"/>
+    <mergeCell ref="W59:AC59"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="I59:O59"/>
+    <mergeCell ref="P59:V59"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7770,44 +7767,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="407"/>
-    <col min="2" max="2" width="16.42578125" style="407" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="407" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="407" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="407"/>
+    <col min="1" max="1" width="8.88671875" style="405"/>
+    <col min="2" max="2" width="16.44140625" style="405" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="405" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="405" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="405"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1">
-      <c r="B1" s="471" t="s">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="469" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="471"/>
-      <c r="D1" s="471"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B2" s="413"/>
+      <c r="C1" s="469"/>
+      <c r="D1" s="469"/>
+    </row>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="411"/>
       <c r="C2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="412">
+      <c r="D2" s="410">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B3" s="408"/>
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="406"/>
       <c r="C3" s="79"/>
       <c r="D3" s="80"/>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1">
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="165"/>
       <c r="C4" s="79" t="s">
         <v>20</v>
@@ -7816,12 +7813,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B5" s="408"/>
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="406"/>
       <c r="C5" s="79"/>
       <c r="D5" s="80"/>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1">
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="124"/>
       <c r="C6" s="79" t="s">
         <v>20</v>
@@ -7830,12 +7827,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B7" s="408"/>
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="406"/>
       <c r="C7" s="79"/>
       <c r="D7" s="80"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1">
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="125"/>
       <c r="C8" s="79" t="s">
         <v>20</v>
@@ -7844,12 +7841,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B9" s="408"/>
+    <row r="9" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="406"/>
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1">
+    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="81"/>
       <c r="C10" s="79" t="s">
         <v>20</v>
@@ -7858,12 +7855,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1">
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="126"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1">
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="200"/>
       <c r="C12" s="79" t="s">
         <v>20</v>
@@ -7872,27 +7869,27 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1">
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="126"/>
       <c r="C13" s="196"/>
       <c r="D13" s="80"/>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B14" s="411"/>
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="409"/>
       <c r="C14" s="79" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="80">
         <v>10</v>
       </c>
-      <c r="F14" s="410"/>
-    </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B15" s="409"/>
+      <c r="F14" s="408"/>
+    </row>
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="407"/>
       <c r="C15" s="79"/>
       <c r="D15" s="127"/>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1">
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="128"/>
       <c r="C16" s="79" t="s">
         <v>20</v>
@@ -7901,12 +7898,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B17" s="408"/>
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="406"/>
       <c r="C17" s="79"/>
       <c r="D17" s="80"/>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1">
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="166"/>
       <c r="C18" s="79" t="s">
         <v>20</v>
@@ -7915,12 +7912,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B19" s="408"/>
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="406"/>
       <c r="C19" s="79"/>
       <c r="D19" s="80"/>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1">
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="82"/>
       <c r="C20" s="79" t="s">
         <v>20</v>
@@ -7929,12 +7926,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B21" s="408"/>
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="406"/>
       <c r="C21" s="79"/>
       <c r="D21" s="80"/>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1">
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="143"/>
       <c r="C22" s="79" t="s">
         <v>20</v>
@@ -7943,12 +7940,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B23" s="408"/>
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="406"/>
       <c r="C23" s="79"/>
       <c r="D23" s="80"/>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1">
+    <row r="24" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="83"/>
       <c r="C24" s="79" t="s">
         <v>20</v>
@@ -7957,12 +7954,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1">
-      <c r="B25" s="408"/>
+    <row r="25" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="406"/>
       <c r="C25" s="79"/>
       <c r="D25" s="80"/>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1">
+    <row r="26" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="84"/>
       <c r="C26" s="79" t="s">
         <v>20</v>
@@ -7971,12 +7968,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B27" s="408"/>
-      <c r="C27" s="408"/>
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="406"/>
+      <c r="C27" s="406"/>
       <c r="D27" s="80"/>
     </row>
-    <row r="28" spans="2:4" ht="21" thickBot="1">
+    <row r="28" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85"/>
       <c r="C28" s="79" t="s">
         <v>20</v>
@@ -7985,43 +7982,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B29" s="408"/>
-      <c r="C29" s="408"/>
-      <c r="D29" s="408"/>
-    </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="406"/>
+      <c r="C29" s="406"/>
+      <c r="D29" s="406"/>
+    </row>
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="129"/>
-      <c r="C30" s="408"/>
+      <c r="C30" s="406"/>
       <c r="D30" s="80" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B31" s="408"/>
-      <c r="C31" s="408"/>
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="406"/>
+      <c r="C31" s="406"/>
       <c r="D31" s="80"/>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1">
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="86"/>
-      <c r="C32" s="408"/>
+      <c r="C32" s="406"/>
       <c r="D32" s="80" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="408"/>
-      <c r="C33" s="408"/>
-      <c r="D33" s="408"/>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B34" s="408"/>
-      <c r="C34" s="408"/>
-      <c r="D34" s="408"/>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="406"/>
+      <c r="C33" s="406"/>
+      <c r="D33" s="406"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="406"/>
+      <c r="C34" s="406"/>
+      <c r="D34" s="406"/>
+    </row>
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="130"/>
-      <c r="C35" s="408"/>
+      <c r="C35" s="406"/>
       <c r="D35" s="80" t="s">
         <v>85</v>
       </c>
